--- a/result.xlsx
+++ b/result.xlsx
@@ -1,40 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gxologistics-my.sharepoint.com/personal/boyan_todorov_gxo_com/Documents/Desktop/PROD-vs-ACT-add-Season/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_010132A7D3D0D6EC940B1AD04B5ED87656CC8FA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E3EFDD0-343D-47B5-A66E-6E6EFAEE6877}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="2685" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="8">
+  <si>
+    <t>Date_Prod</t>
+  </si>
+  <si>
+    <t>Qty_Prod</t>
+  </si>
+  <si>
+    <t>Date_Act</t>
+  </si>
+  <si>
+    <t>Qty_Act</t>
+  </si>
+  <si>
+    <t>_merge</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>right_only</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +84,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,6426 +409,5871 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date_Prod</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Qty_Prod</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Date_Act</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Qty_Act</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>_merge</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>difference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>45293</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>16224</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>45293</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>31549</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
         <v>-15325</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>45294</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4436</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>45294</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>9560</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
         <v>-5124</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>45295</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4481</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>45295</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>6116</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
         <v>-1635</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>45296</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>16737</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>45296</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>14904</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
         <v>1833</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>45297</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3878</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>45297</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>5468</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
         <v>-1590</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>45299</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>18977</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>45299</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>14039</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
         <v>4938</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
         <v>45300</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>24091</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>45300</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>30147</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
         <v>-6056</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>45301</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>7652</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>45301</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>10013</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
         <v>-2361</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>45302</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>7599</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>45302</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>6156</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
         <v>1443</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>45303</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>29303</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>45303</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>15696</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
         <v>13607</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>45304</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>739</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>45304</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>30</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
         <v>709</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>45305</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>276</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13">
         <v>-276</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>45306</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>22940</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>45306</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>26725</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
         <v>-3785</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>45307</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>17887</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>45307</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>25242</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
         <v>-7355</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>45308</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>11559</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>45308</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>17511</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16">
         <v>-5952</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>45309</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>26708</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>45309</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>26428</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17">
         <v>280</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>45310</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>18900</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>45310</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>25744</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18">
         <v>-6844</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>45311</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>1388</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19">
         <v>-1388</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>45312</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>325</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20">
         <v>-325</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>45313</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>10801</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>45313</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>12847</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
         <v>-2046</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>45314</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>13727</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>45314</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>15381</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
         <v>-1654</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>45315</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>35764</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>45315</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>29048</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
         <v>6716</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>45316</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>27091</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2">
         <v>45316</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>38102</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24">
         <v>-11011</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>45317</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>12866</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2">
         <v>45317</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>13286</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25">
         <v>-420</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>45318</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>156</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="2">
         <v>45318</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>197</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26">
         <v>-41</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>45320</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>19178</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="2">
         <v>45320</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>9533</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27">
         <v>9645</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>45321</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>6940</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="2">
         <v>45321</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>17552</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28">
         <v>-10612</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>45322</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>15834</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>45322</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>15593</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29">
         <v>241</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>45323</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>4800</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2">
         <v>45323</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>4771</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>45324</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>16473</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>45324</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>17546</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31">
         <v>-1073</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="2">
         <v>45325</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>583</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32">
         <v>-583</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="2">
         <v>45326</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>176</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33">
         <v>-176</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>45327</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>15492</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="2">
         <v>45327</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>13814</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34">
         <v>1678</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>45328</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>24690</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="2">
         <v>45328</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>27464</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35">
         <v>-2774</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="2">
         <v>45329</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>35798</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="2">
         <v>45329</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>33779</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36">
         <v>2019</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>45330</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>8381</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="2">
         <v>45330</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>14145</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37">
         <v>-5764</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="2">
         <v>45331</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>12174</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="2">
         <v>45331</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>10534</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38">
         <v>1640</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="2">
         <v>45332</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>428</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39">
         <v>-428</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="2">
         <v>45333</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>516</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40">
         <v>-516</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="2">
         <v>45334</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>15705</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="2">
         <v>45334</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>13255</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41">
         <v>2450</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2">
         <v>45335</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>8557</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="2">
         <v>45335</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>8778</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42">
         <v>-221</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="2">
         <v>45336</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>20028</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43">
         <v>-20028</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="2">
         <v>45337</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>6467</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="2">
         <v>45337</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>11248</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44">
         <v>-4781</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="2">
         <v>45338</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>12105</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="2">
         <v>45338</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>13075</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45">
         <v>-970</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="2">
         <v>45339</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>254</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46">
         <v>-254</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="2">
         <v>45341</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>8616</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="2">
         <v>45341</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>6293</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47">
         <v>2323</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="2">
         <v>45342</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>20297</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="2">
         <v>45342</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>19710</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48">
         <v>587</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="2">
         <v>45343</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>13680</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="2">
         <v>45343</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>8296</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49">
         <v>5384</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="2">
         <v>45344</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>16846</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="2">
         <v>45344</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>24135</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50">
         <v>-7289</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="2">
         <v>45345</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>22453</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="2">
         <v>45345</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>17527</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51">
         <v>4926</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="2">
         <v>45346</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>340</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52">
         <v>-340</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="2">
         <v>45348</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>38718</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="2">
         <v>45348</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>36638</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53">
         <v>2080</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="2">
         <v>45349</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>16704</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="2">
         <v>45349</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>19707</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54">
         <v>-3003</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="2">
         <v>45350</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>10731</v>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" s="2">
         <v>45350</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>15696</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55">
         <v>-4965</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="2">
         <v>45351</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>12214</v>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" s="2">
         <v>45351</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>11066</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56">
         <v>1148</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="2">
         <v>45352</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>13576</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="2">
         <v>45352</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>15209</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57">
         <v>-1633</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0</v>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" s="2">
         <v>45353</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>172</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58">
         <v>-172</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="2">
         <v>45355</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>16761</v>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="2">
         <v>45355</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>15956</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59">
         <v>805</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="2">
         <v>45356</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>14351</v>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="2">
         <v>45356</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>13347</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60">
         <v>1004</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="2">
         <v>45357</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>11296</v>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" s="2">
         <v>45357</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>13411</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61">
         <v>-2115</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="2">
         <v>45358</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>26309</v>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" s="2">
         <v>45358</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>17037</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62">
         <v>9272</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="2">
         <v>45359</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>13925</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="2">
         <v>45359</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>20217</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63">
         <v>-6292</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0</v>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" s="2">
         <v>45360</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>840</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64">
         <v>-840</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="2">
         <v>45362</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>13434</v>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" s="2">
         <v>45362</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>12572</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65">
         <v>862</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="2">
         <v>45363</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>15534</v>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="2">
         <v>45363</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>18861</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66">
         <v>-3327</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="2">
         <v>45364</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>9385</v>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" s="2">
         <v>45364</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>11450</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67">
         <v>-2065</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="2">
         <v>45365</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>17882</v>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" s="2">
         <v>45365</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>10063</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
+      <c r="F68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68">
         <v>7819</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B69" s="2">
         <v>45366</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>18747</v>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" s="2">
         <v>45366</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>27776</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69">
         <v>-9029</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" s="2">
         <v>45367</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>2380</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70">
         <v>-2380</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="n">
+      <c r="B71" s="2">
         <v>45369</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>9492</v>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" s="2">
         <v>45369</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>9234</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
+      <c r="F71" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71">
         <v>258</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="n">
+      <c r="B72" s="2">
         <v>45370</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>19538</v>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" s="2">
         <v>45370</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>14414</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72">
         <v>5124</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="n">
+      <c r="B73" s="2">
         <v>45371</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>6598</v>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" s="2">
         <v>45371</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>10718</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73">
         <v>-4120</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="n">
+      <c r="B74" s="2">
         <v>45372</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>22582</v>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" s="2">
         <v>45372</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>27883</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74">
         <v>-5301</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B75" s="2">
         <v>45373</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>23872</v>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" s="2">
         <v>45373</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>31898</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75">
         <v>-8026</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0</v>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" s="2">
         <v>45374</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>1570</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76">
         <v>-1570</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B77" s="2">
         <v>45376</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>13314</v>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" s="2">
         <v>45376</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>15787</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77">
         <v>-2473</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B78" s="2">
         <v>45377</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>20358</v>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" s="2">
         <v>45377</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>19115</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
+      <c r="F78" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78">
         <v>1243</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="n">
+      <c r="B79" s="2">
         <v>45378</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>5</v>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" s="2">
         <v>45378</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>3813</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79">
         <v>-3808</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B80" s="2">
         <v>45379</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>42</v>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" s="2">
         <v>45379</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>970</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80">
         <v>-928</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="n">
+      <c r="B81" s="2">
         <v>45380</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>5101</v>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" s="2">
         <v>45380</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>4952</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
+      <c r="F81" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81">
         <v>149</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="n">
+      <c r="B82" s="2">
         <v>45384</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>7581</v>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" s="2">
         <v>45384</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>7500</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82">
         <v>81</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="n">
+      <c r="B83" s="2">
         <v>45385</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>14189</v>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" s="2">
         <v>45385</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>17190</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83">
         <v>-3001</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="n">
+      <c r="B84" s="2">
         <v>45386</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>20581</v>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" s="2">
         <v>45386</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>20670</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84">
         <v>-89</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="n">
+      <c r="B85" s="2">
         <v>45387</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>11665</v>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" s="2">
         <v>45387</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>11620</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
+      <c r="F85" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85">
         <v>45</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0</v>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" s="2">
         <v>45388</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>558</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86">
         <v>-558</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="n">
+      <c r="B87" s="2">
         <v>45390</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>7533</v>
       </c>
-      <c r="D87" s="2" t="n">
+      <c r="D87" s="2">
         <v>45390</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>8004</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87">
         <v>-471</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="n">
+      <c r="B88" s="2">
         <v>45391</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>8174</v>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" s="2">
         <v>45391</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>11149</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88">
         <v>-2975</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="n">
+      <c r="B89" s="2">
         <v>45392</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>4414</v>
       </c>
-      <c r="D89" s="2" t="n">
+      <c r="D89" s="2">
         <v>45392</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>5041</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
+      <c r="F89" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89">
         <v>-627</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="n">
+      <c r="B90" s="2">
         <v>45393</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>4662</v>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" s="2">
         <v>45393</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>4591</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
+      <c r="F90" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90">
         <v>71</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="n">
+      <c r="B91" s="2">
         <v>45394</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>3352</v>
       </c>
-      <c r="D91" s="2" t="n">
+      <c r="D91" s="2">
         <v>45394</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>3617</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
+      <c r="F91" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91">
         <v>-265</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="n">
+      <c r="B92" s="2">
         <v>45397</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>4798</v>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" s="2">
         <v>45397</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>4640</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
+      <c r="F92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92">
         <v>158</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="n">
+      <c r="B93" s="2">
         <v>45398</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>8847</v>
       </c>
-      <c r="D93" s="2" t="n">
+      <c r="D93" s="2">
         <v>45398</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>7843</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
+      <c r="F93" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93">
         <v>1004</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="n">
+      <c r="B94" s="2">
         <v>45399</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>17760</v>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" s="2">
         <v>45399</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>8389</v>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
+      <c r="F94" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94">
         <v>9371</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="n">
+      <c r="B95" s="2">
         <v>45400</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>2301</v>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" s="2">
         <v>45400</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>14678</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
+      <c r="F95" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95">
         <v>-12377</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="n">
+      <c r="B96" s="2">
         <v>45401</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>13167</v>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" s="2">
         <v>45401</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>12923</v>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96">
         <v>244</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0</v>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" s="2">
         <v>45402</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>766</v>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
+      <c r="F97" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97">
         <v>-766</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="n">
+      <c r="B98" s="2">
         <v>45404</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>14300</v>
       </c>
-      <c r="D98" s="2" t="n">
+      <c r="D98" s="2">
         <v>45404</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>11628</v>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98">
         <v>2672</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="2" t="n">
+      <c r="B99" s="2">
         <v>45405</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>10828</v>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" s="2">
         <v>45405</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>13481</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
+      <c r="F99" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99">
         <v>-2653</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="2" t="n">
+      <c r="B100" s="2">
         <v>45406</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>21778</v>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" s="2">
         <v>45406</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>20610</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
+      <c r="F100" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100">
         <v>1168</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="2" t="n">
+      <c r="B101" s="2">
         <v>45407</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>9263</v>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" s="2">
         <v>45407</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>13082</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
+      <c r="F101" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101">
         <v>-3819</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="n">
+      <c r="B102" s="2">
         <v>45408</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>12654</v>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" s="2">
         <v>45408</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>14081</v>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
+      <c r="F102" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102">
         <v>-1427</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0</v>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" s="2">
         <v>45409</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>147</v>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
+      <c r="F103" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103">
         <v>-147</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="n">
+      <c r="B104" s="2">
         <v>45411</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>11364</v>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" s="2">
         <v>45411</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>7836</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
+      <c r="F104" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104">
         <v>3528</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="2" t="n">
+      <c r="B105" s="2">
         <v>45412</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>21857</v>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" s="2">
         <v>45412</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>22291</v>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
+      <c r="F105" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105">
         <v>-434</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="2" t="n">
+      <c r="B106" s="2">
         <v>45413</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>13102</v>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" s="2">
         <v>45413</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>14140</v>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
+      <c r="F106" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106">
         <v>-1038</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="n">
+      <c r="B107" s="2">
         <v>45414</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>15685</v>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" s="2">
         <v>45414</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>17378</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107">
         <v>-1693</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="2" t="n">
+      <c r="B108" s="2">
         <v>45415</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>10846</v>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" s="2">
         <v>45415</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>13755</v>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108">
         <v>-2909</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="2" t="n">
+      <c r="B109" s="2">
         <v>45416</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>333</v>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" s="2">
         <v>45416</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>326</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
+      <c r="F109" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109">
         <v>7</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="n">
+      <c r="B110" s="2">
         <v>45418</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>8784</v>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" s="2">
         <v>45418</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>8607</v>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
+      <c r="F110" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110">
         <v>177</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="2" t="n">
+      <c r="B111" s="2">
         <v>45419</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>15311</v>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" s="2">
         <v>45419</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>11173</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111">
         <v>4138</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="2" t="n">
+      <c r="B112" s="2">
         <v>45420</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>18320</v>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" s="2">
         <v>45420</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>17692</v>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112">
         <v>628</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0</v>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" s="2">
         <v>45421</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>1385</v>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113">
         <v>-1385</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="2" t="n">
+      <c r="B114" s="2">
         <v>45422</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>10315</v>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" s="2">
         <v>45422</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>18261</v>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114">
         <v>-7946</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0</v>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" s="2">
         <v>45423</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>1192</v>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115">
         <v>-1192</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="2" t="n">
+      <c r="B116" s="2">
         <v>45425</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>16027</v>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" s="2">
         <v>45425</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>17421</v>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116">
         <v>-1394</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="2" t="n">
+      <c r="B117" s="2">
         <v>45426</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>22022</v>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" s="2">
         <v>45426</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>26698</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117">
         <v>-4676</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="2" t="n">
+      <c r="B118" s="2">
         <v>45427</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>30869</v>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" s="2">
         <v>45427</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>39338</v>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118">
         <v>-8469</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="2" t="n">
+      <c r="B119" s="2">
         <v>45428</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>30784</v>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" s="2">
         <v>45428</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>32548</v>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119">
         <v>-1764</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="2" t="n">
+      <c r="B120" s="2">
         <v>45429</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>22070</v>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" s="2">
         <v>45429</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>23107</v>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120">
         <v>-1037</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0</v>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" s="2">
         <v>45430</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>830</v>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121">
         <v>-830</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="2" t="n">
+      <c r="B122" s="2">
         <v>45433</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>12531</v>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" s="2">
         <v>45433</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>15569</v>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122">
         <v>-3038</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="2" t="n">
+      <c r="B123" s="2">
         <v>45434</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>19392</v>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" s="2">
         <v>45434</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>19428</v>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123">
         <v>-36</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="2" t="n">
+      <c r="B124" s="2">
         <v>45435</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>20927</v>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" s="2">
         <v>45435</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>24550</v>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124">
         <v>-3623</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="2" t="n">
+      <c r="B125" s="2">
         <v>45436</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>36827</v>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" s="2">
         <v>45436</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>26518</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125">
         <v>10309</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="2" t="n">
+      <c r="B126" s="2">
         <v>45437</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>11093</v>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" s="2">
         <v>45437</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>21358</v>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126">
         <v>-10265</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="n">
+      <c r="B127" s="2">
         <v>45439</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>12984</v>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" s="2">
         <v>45439</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>14287</v>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
+      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127">
         <v>-1303</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="2" t="n">
+      <c r="B128" s="2">
         <v>45440</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>17995</v>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" s="2">
         <v>45440</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>17616</v>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
+      <c r="F128" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128">
         <v>379</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="2" t="n">
+      <c r="B129" s="2">
         <v>45441</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>7948</v>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" s="2">
         <v>45441</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>7151</v>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
+      <c r="F129" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129">
         <v>797</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="n">
+      <c r="B130" s="2">
         <v>45442</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>31344</v>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" s="2">
         <v>45442</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>35654</v>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130">
         <v>-4310</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="2" t="n">
+      <c r="B131" s="2">
         <v>45443</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>15492</v>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" s="2">
         <v>45443</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>19519</v>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
+      <c r="F131" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131">
         <v>-4027</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="2" t="n">
+      <c r="B132" s="2">
         <v>45444</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>319</v>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" s="2">
         <v>45444</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>542</v>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
+      <c r="F132" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132">
         <v>-223</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0</v>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" s="2">
         <v>45445</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>25</v>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
+      <c r="F133" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133">
         <v>-25</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="2" t="n">
+      <c r="B134" s="2">
         <v>45446</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>26242</v>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" s="2">
         <v>45446</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>24489</v>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134">
         <v>1753</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="2" t="n">
+      <c r="B135" s="2">
         <v>45447</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>16657</v>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" s="2">
         <v>45447</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>18107</v>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
+      <c r="F135" t="s">
+        <v>6</v>
+      </c>
+      <c r="G135">
         <v>-1450</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="2" t="n">
+      <c r="B136" s="2">
         <v>45448</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>18227</v>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" s="2">
         <v>45448</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>16785</v>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136">
         <v>1442</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="2" t="n">
+      <c r="B137" s="2">
         <v>45449</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>12197</v>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" s="2">
         <v>45449</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>17117</v>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+      <c r="G137">
         <v>-4920</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="2" t="n">
+      <c r="B138" s="2">
         <v>45450</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>18910</v>
       </c>
-      <c r="D138" s="2" t="n">
+      <c r="D138" s="2">
         <v>45450</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>13601</v>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
+      <c r="F138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138">
         <v>5309</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="n">
+      <c r="B139" s="2">
         <v>45453</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>18815</v>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" s="2">
         <v>45453</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>15541</v>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
+      <c r="F139" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139">
         <v>3274</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="2" t="n">
+      <c r="B140" s="2">
         <v>45454</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>1400</v>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" s="2">
         <v>45454</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>23389</v>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
+      <c r="F140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G140">
         <v>-21989</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="2" t="n">
+      <c r="B141" s="2">
         <v>45455</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>8852</v>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" s="2">
         <v>45455</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>14965</v>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141">
         <v>-6113</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="2" t="n">
+      <c r="B142" s="2">
         <v>45456</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>18526</v>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" s="2">
         <v>45456</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>16547</v>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
+      <c r="F142" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142">
         <v>1979</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="2" t="n">
+      <c r="B143" s="2">
         <v>45457</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>29470</v>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" s="2">
         <v>45457</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>29252</v>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
+      <c r="F143" t="s">
+        <v>6</v>
+      </c>
+      <c r="G143">
         <v>218</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0</v>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" s="2">
         <v>45458</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>272</v>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
+      <c r="F144" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144">
         <v>-272</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0</v>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" s="2">
         <v>45459</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>292</v>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
+      <c r="F145" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145">
         <v>-292</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="2" t="n">
+      <c r="B146" s="2">
         <v>45460</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>29458</v>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" s="2">
         <v>45460</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>30231</v>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
+      <c r="F146" t="s">
+        <v>6</v>
+      </c>
+      <c r="G146">
         <v>-773</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="2" t="n">
+      <c r="B147" s="2">
         <v>45461</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>21357</v>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" s="2">
         <v>45461</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>28024</v>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
+      <c r="F147" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147">
         <v>-6667</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="2" t="n">
+      <c r="B148" s="2">
         <v>45462</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>18118</v>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" s="2">
         <v>45462</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>28717</v>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
+      <c r="F148" t="s">
+        <v>6</v>
+      </c>
+      <c r="G148">
         <v>-10599</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="2" t="n">
+      <c r="B149" s="2">
         <v>45463</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>6865</v>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" s="2">
         <v>45463</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>13282</v>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
+      <c r="F149" t="s">
+        <v>6</v>
+      </c>
+      <c r="G149">
         <v>-6417</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="2" t="n">
+      <c r="B150" s="2">
         <v>45464</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>6302</v>
       </c>
-      <c r="D150" s="2" t="n">
+      <c r="D150" s="2">
         <v>45464</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>8454</v>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
+      <c r="F150" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150">
         <v>-2152</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0</v>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" s="2">
         <v>45465</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>157</v>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
+      <c r="F151" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151">
         <v>-157</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="2" t="n">
+      <c r="B152" s="2">
         <v>45467</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>7894</v>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" s="2">
         <v>45467</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152">
         <v>7220</v>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
+      <c r="F152" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152">
         <v>674</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" s="2" t="n">
+      <c r="B153" s="2">
         <v>45468</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>4236</v>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" s="2">
         <v>45468</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153">
         <v>5401</v>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
+      <c r="F153" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153">
         <v>-1165</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" s="2" t="n">
+      <c r="B154" s="2">
         <v>45469</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>7482</v>
       </c>
-      <c r="D154" s="2" t="n">
+      <c r="D154" s="2">
         <v>45469</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>5428</v>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
+      <c r="F154" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154">
         <v>2054</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="2" t="n">
+      <c r="B155" s="2">
         <v>45470</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>18381</v>
       </c>
-      <c r="D155" s="2" t="n">
+      <c r="D155" s="2">
         <v>45470</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>9965</v>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
+      <c r="F155" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155">
         <v>8416</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="2" t="n">
+      <c r="B156" s="2">
         <v>45471</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>16768</v>
       </c>
-      <c r="D156" s="2" t="n">
+      <c r="D156" s="2">
         <v>45471</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>27787</v>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
+      <c r="F156" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156">
         <v>-11019</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0</v>
       </c>
-      <c r="D157" s="2" t="n">
+      <c r="D157" s="2">
         <v>45472</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>1228</v>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
+      <c r="F157" t="s">
+        <v>7</v>
+      </c>
+      <c r="G157">
         <v>-1228</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0</v>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" s="2">
         <v>45473</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>518</v>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
+      <c r="F158" t="s">
+        <v>7</v>
+      </c>
+      <c r="G158">
         <v>-518</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="2" t="n">
+      <c r="B159" s="2">
         <v>45474</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>29443</v>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" s="2">
         <v>45474</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>28797</v>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
+      <c r="F159" t="s">
+        <v>6</v>
+      </c>
+      <c r="G159">
         <v>646</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" s="2" t="n">
+      <c r="B160" s="2">
         <v>45475</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>5228</v>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" s="2">
         <v>45475</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>7315</v>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G160" t="n">
+      <c r="F160" t="s">
+        <v>6</v>
+      </c>
+      <c r="G160">
         <v>-2087</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" s="2" t="n">
+      <c r="B161" s="2">
         <v>45476</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>7608</v>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" s="2">
         <v>45476</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>7074</v>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
+      <c r="F161" t="s">
+        <v>6</v>
+      </c>
+      <c r="G161">
         <v>534</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" s="2" t="n">
+      <c r="B162" s="2">
         <v>45477</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>3618</v>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" s="2">
         <v>45477</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162">
         <v>6216</v>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G162" t="n">
+      <c r="F162" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162">
         <v>-2598</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" s="2" t="n">
+      <c r="B163" s="2">
         <v>45478</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>38021</v>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" s="2">
         <v>45478</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>27792</v>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
+      <c r="F163" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163">
         <v>10229</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0</v>
       </c>
-      <c r="D164" s="2" t="n">
+      <c r="D164" s="2">
         <v>45479</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164">
         <v>1349</v>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
+      <c r="F164" t="s">
+        <v>7</v>
+      </c>
+      <c r="G164">
         <v>-1349</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" s="2" t="n">
+      <c r="B165" s="2">
         <v>45481</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>10780</v>
       </c>
-      <c r="D165" s="2" t="n">
+      <c r="D165" s="2">
         <v>45481</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165">
         <v>16101</v>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
+      <c r="F165" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165">
         <v>-5321</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" s="2" t="n">
+      <c r="B166" s="2">
         <v>45482</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>7140</v>
       </c>
-      <c r="D166" s="2" t="n">
+      <c r="D166" s="2">
         <v>45482</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166">
         <v>7641</v>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
+      <c r="F166" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166">
         <v>-501</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" s="2" t="n">
+      <c r="B167" s="2">
         <v>45483</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>8785</v>
       </c>
-      <c r="D167" s="2" t="n">
+      <c r="D167" s="2">
         <v>45483</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>12529</v>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
+      <c r="F167" t="s">
+        <v>6</v>
+      </c>
+      <c r="G167">
         <v>-3744</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" s="2" t="n">
+      <c r="B168" s="2">
         <v>45484</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>12757</v>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" s="2">
         <v>45484</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>14112</v>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
+      <c r="F168" t="s">
+        <v>6</v>
+      </c>
+      <c r="G168">
         <v>-1355</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" s="2" t="n">
+      <c r="B169" s="2">
         <v>45485</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>7357</v>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" s="2">
         <v>45485</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169">
         <v>9141</v>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
+      <c r="F169" t="s">
+        <v>6</v>
+      </c>
+      <c r="G169">
         <v>-1784</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0</v>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" s="2">
         <v>45486</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170">
         <v>394</v>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
+      <c r="F170" t="s">
+        <v>7</v>
+      </c>
+      <c r="G170">
         <v>-394</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" s="2" t="n">
+      <c r="B171" s="2">
         <v>45488</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>1271</v>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" s="2">
         <v>45488</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171">
         <v>2564</v>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
+      <c r="F171" t="s">
+        <v>6</v>
+      </c>
+      <c r="G171">
         <v>-1293</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" s="2" t="n">
+      <c r="B172" s="2">
         <v>45489</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>12716</v>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" s="2">
         <v>45489</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172">
         <v>12241</v>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
+      <c r="F172" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172">
         <v>475</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" s="2" t="n">
+      <c r="B173" s="2">
         <v>45490</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>5321</v>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" s="2">
         <v>45490</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173">
         <v>6074</v>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
+      <c r="F173" t="s">
+        <v>6</v>
+      </c>
+      <c r="G173">
         <v>-753</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" s="2" t="n">
+      <c r="B174" s="2">
         <v>45491</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>9697</v>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" s="2">
         <v>45491</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174">
         <v>10695</v>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
+      <c r="F174" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174">
         <v>-998</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" s="2" t="n">
+      <c r="B175" s="2">
         <v>45492</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>12433</v>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" s="2">
         <v>45492</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E175">
         <v>13072</v>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
+      <c r="F175" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175">
         <v>-639</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0</v>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" s="2">
         <v>45493</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176">
         <v>476</v>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
+      <c r="F176" t="s">
+        <v>7</v>
+      </c>
+      <c r="G176">
         <v>-476</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" s="2" t="n">
+      <c r="B177" s="2">
         <v>45495</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>4335</v>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" s="2">
         <v>45495</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177">
         <v>5192</v>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
+      <c r="F177" t="s">
+        <v>6</v>
+      </c>
+      <c r="G177">
         <v>-857</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" s="2" t="n">
+      <c r="B178" s="2">
         <v>45496</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>4826</v>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" s="2">
         <v>45496</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178">
         <v>6594</v>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
+      <c r="F178" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178">
         <v>-1768</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" s="2" t="n">
+      <c r="B179" s="2">
         <v>45497</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>22886</v>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" s="2">
         <v>45497</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179">
         <v>21693</v>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G179" t="n">
+      <c r="F179" t="s">
+        <v>6</v>
+      </c>
+      <c r="G179">
         <v>1193</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" s="2" t="n">
+      <c r="B180" s="2">
         <v>45498</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>20704</v>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" s="2">
         <v>45498</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E180">
         <v>15894</v>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G180" t="n">
+      <c r="F180" t="s">
+        <v>6</v>
+      </c>
+      <c r="G180">
         <v>4810</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" s="2" t="n">
+      <c r="B181" s="2">
         <v>45499</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>20732</v>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" s="2">
         <v>45499</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181">
         <v>31212</v>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
+      <c r="F181" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181">
         <v>-10480</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" s="2" t="n">
+      <c r="B182" s="2">
         <v>45500</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>68</v>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" s="2">
         <v>45500</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182">
         <v>1642</v>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
+      <c r="F182" t="s">
+        <v>6</v>
+      </c>
+      <c r="G182">
         <v>-1574</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" s="2" t="n">
+      <c r="B183" s="2">
         <v>45502</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>11457</v>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" s="2">
         <v>45502</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183">
         <v>10790</v>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
+      <c r="F183" t="s">
+        <v>6</v>
+      </c>
+      <c r="G183">
         <v>667</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0</v>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" s="2">
         <v>45503</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184">
         <v>8890</v>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
+      <c r="F184" t="s">
+        <v>7</v>
+      </c>
+      <c r="G184">
         <v>-8890</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" s="2" t="n">
+      <c r="B185" s="2">
         <v>45504</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>23375</v>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" s="2">
         <v>45504</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185">
         <v>18428</v>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
+      <c r="F185" t="s">
+        <v>6</v>
+      </c>
+      <c r="G185">
         <v>4947</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" s="2" t="n">
+      <c r="B186" s="2">
         <v>45505</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>5817</v>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" s="2">
         <v>45505</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186">
         <v>15191</v>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
+      <c r="F186" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186">
         <v>-9374</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" s="2" t="n">
+      <c r="B187" s="2">
         <v>45506</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>23982</v>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" s="2">
         <v>45506</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187">
         <v>10048</v>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
+      <c r="F187" t="s">
+        <v>6</v>
+      </c>
+      <c r="G187">
         <v>13934</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" s="2" t="n">
+      <c r="B188" s="2">
         <v>45507</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>315</v>
       </c>
-      <c r="D188" s="2" t="n">
+      <c r="D188" s="2">
         <v>45507</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188">
         <v>130</v>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G188" t="n">
+      <c r="F188" t="s">
+        <v>6</v>
+      </c>
+      <c r="G188">
         <v>185</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" s="2" t="n">
+      <c r="B189" s="2">
         <v>45509</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>13615</v>
       </c>
-      <c r="D189" s="2" t="n">
+      <c r="D189" s="2">
         <v>45509</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E189">
         <v>27219</v>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
+      <c r="F189" t="s">
+        <v>6</v>
+      </c>
+      <c r="G189">
         <v>-13604</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" s="2" t="n">
+      <c r="B190" s="2">
         <v>45510</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>20674</v>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" s="2">
         <v>45510</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E190">
         <v>20538</v>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
+      <c r="F190" t="s">
+        <v>6</v>
+      </c>
+      <c r="G190">
         <v>136</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" s="2" t="n">
+      <c r="B191" s="2">
         <v>45511</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>41605</v>
       </c>
-      <c r="D191" s="2" t="n">
+      <c r="D191" s="2">
         <v>45511</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191">
         <v>39011</v>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G191" t="n">
+      <c r="F191" t="s">
+        <v>6</v>
+      </c>
+      <c r="G191">
         <v>2594</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="2" t="n">
+      <c r="B192" s="2">
         <v>45512</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>28203</v>
       </c>
-      <c r="D192" s="2" t="n">
+      <c r="D192" s="2">
         <v>45512</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192">
         <v>32174</v>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G192" t="n">
+      <c r="F192" t="s">
+        <v>6</v>
+      </c>
+      <c r="G192">
         <v>-3971</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" s="2" t="n">
+      <c r="B193" s="2">
         <v>45513</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>10336</v>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" s="2">
         <v>45513</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193">
         <v>19380</v>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G193" t="n">
+      <c r="F193" t="s">
+        <v>6</v>
+      </c>
+      <c r="G193">
         <v>-9044</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" s="2" t="n">
+      <c r="B194" s="2">
         <v>45514</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>3275</v>
       </c>
-      <c r="D194" s="2" t="n">
+      <c r="D194" s="2">
         <v>45514</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194">
         <v>3956</v>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G194" t="n">
+      <c r="F194" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194">
         <v>-681</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0</v>
       </c>
-      <c r="D195" s="2" t="n">
+      <c r="D195" s="2">
         <v>45515</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195">
         <v>180</v>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G195" t="n">
+      <c r="F195" t="s">
+        <v>7</v>
+      </c>
+      <c r="G195">
         <v>-180</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" s="2" t="n">
+      <c r="B196" s="2">
         <v>45516</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>18030</v>
       </c>
-      <c r="D196" s="2" t="n">
+      <c r="D196" s="2">
         <v>45516</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196">
         <v>13992</v>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G196" t="n">
+      <c r="F196" t="s">
+        <v>6</v>
+      </c>
+      <c r="G196">
         <v>4038</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" s="2" t="n">
+      <c r="B197" s="2">
         <v>45517</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>19650</v>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" s="2">
         <v>45517</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197">
         <v>15417</v>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G197" t="n">
+      <c r="F197" t="s">
+        <v>6</v>
+      </c>
+      <c r="G197">
         <v>4233</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" s="2" t="n">
+      <c r="B198" s="2">
         <v>45518</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>8778</v>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" s="2">
         <v>45518</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198">
         <v>18357</v>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G198" t="n">
+      <c r="F198" t="s">
+        <v>6</v>
+      </c>
+      <c r="G198">
         <v>-9579</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" s="2" t="n">
+      <c r="B199" s="2">
         <v>45519</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>23285</v>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" s="2">
         <v>45519</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199">
         <v>10610</v>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G199" t="n">
+      <c r="F199" t="s">
+        <v>6</v>
+      </c>
+      <c r="G199">
         <v>12675</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" s="2" t="n">
+      <c r="B200" s="2">
         <v>45520</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>14574</v>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" s="2">
         <v>45520</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200">
         <v>28955</v>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
+      <c r="F200" t="s">
+        <v>6</v>
+      </c>
+      <c r="G200">
         <v>-14381</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="inlineStr"/>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0</v>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" s="2">
         <v>45521</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201">
         <v>453</v>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G201" t="n">
+      <c r="F201" t="s">
+        <v>7</v>
+      </c>
+      <c r="G201">
         <v>-453</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="inlineStr"/>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0</v>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" s="2">
         <v>45522</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202">
         <v>361</v>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G202" t="n">
+      <c r="F202" t="s">
+        <v>7</v>
+      </c>
+      <c r="G202">
         <v>-361</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" s="2" t="n">
+      <c r="B203" s="2">
         <v>45523</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>21011</v>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" s="2">
         <v>45523</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203">
         <v>22142</v>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G203" t="n">
+      <c r="F203" t="s">
+        <v>6</v>
+      </c>
+      <c r="G203">
         <v>-1131</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" s="2" t="n">
+      <c r="B204" s="2">
         <v>45524</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>13924</v>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" s="2">
         <v>45524</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204">
         <v>17898</v>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G204" t="n">
+      <c r="F204" t="s">
+        <v>6</v>
+      </c>
+      <c r="G204">
         <v>-3974</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" s="2" t="n">
+      <c r="B205" s="2">
         <v>45525</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>26249</v>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" s="2">
         <v>45525</v>
       </c>
-      <c r="E205" t="n">
+      <c r="E205">
         <v>23779</v>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
+      <c r="F205" t="s">
+        <v>6</v>
+      </c>
+      <c r="G205">
         <v>2470</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" s="2" t="n">
+      <c r="B206" s="2">
         <v>45526</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>24381</v>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" s="2">
         <v>45526</v>
       </c>
-      <c r="E206" t="n">
+      <c r="E206">
         <v>34603</v>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G206" t="n">
+      <c r="F206" t="s">
+        <v>6</v>
+      </c>
+      <c r="G206">
         <v>-10222</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" s="2" t="n">
+      <c r="B207" s="2">
         <v>45527</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>10401</v>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" s="2">
         <v>45527</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207">
         <v>20188</v>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G207" t="n">
+      <c r="F207" t="s">
+        <v>6</v>
+      </c>
+      <c r="G207">
         <v>-9787</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0</v>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" s="2">
         <v>45528</v>
       </c>
-      <c r="E208" t="n">
+      <c r="E208">
         <v>586</v>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G208" t="n">
+      <c r="F208" t="s">
+        <v>7</v>
+      </c>
+      <c r="G208">
         <v>-586</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" s="2" t="n">
+      <c r="B209" s="2">
         <v>45530</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>16765</v>
       </c>
-      <c r="D209" s="2" t="n">
+      <c r="D209" s="2">
         <v>45530</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209">
         <v>16128</v>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G209" t="n">
+      <c r="F209" t="s">
+        <v>6</v>
+      </c>
+      <c r="G209">
         <v>637</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" s="2" t="n">
+      <c r="B210" s="2">
         <v>45531</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>13472</v>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" s="2">
         <v>45531</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210">
         <v>13471</v>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G210" t="n">
+      <c r="F210" t="s">
+        <v>6</v>
+      </c>
+      <c r="G210">
         <v>1</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" s="2" t="n">
+      <c r="B211" s="2">
         <v>45532</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>10161</v>
       </c>
-      <c r="D211" s="2" t="n">
+      <c r="D211" s="2">
         <v>45532</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211">
         <v>9987</v>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G211" t="n">
+      <c r="F211" t="s">
+        <v>6</v>
+      </c>
+      <c r="G211">
         <v>174</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" s="2" t="n">
+      <c r="B212" s="2">
         <v>45533</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>28747</v>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" s="2">
         <v>45533</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212">
         <v>28582</v>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G212" t="n">
+      <c r="F212" t="s">
+        <v>6</v>
+      </c>
+      <c r="G212">
         <v>165</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" s="2" t="n">
+      <c r="B213" s="2">
         <v>45534</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>13913</v>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" s="2">
         <v>45534</v>
       </c>
-      <c r="E213" t="n">
+      <c r="E213">
         <v>14018</v>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G213" t="n">
+      <c r="F213" t="s">
+        <v>6</v>
+      </c>
+      <c r="G213">
         <v>-105</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0</v>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" s="2">
         <v>45535</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214">
         <v>76</v>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G214" t="n">
+      <c r="F214" t="s">
+        <v>7</v>
+      </c>
+      <c r="G214">
         <v>-76</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" s="2" t="n">
+      <c r="B215" s="2">
         <v>45537</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>20945</v>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" s="2">
         <v>45537</v>
       </c>
-      <c r="E215" t="n">
+      <c r="E215">
         <v>20893</v>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G215" t="n">
+      <c r="F215" t="s">
+        <v>6</v>
+      </c>
+      <c r="G215">
         <v>52</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" s="2" t="n">
+      <c r="B216" s="2">
         <v>45538</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>26359</v>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" s="2">
         <v>45538</v>
       </c>
-      <c r="E216" t="n">
+      <c r="E216">
         <v>26359</v>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G216" t="n">
+      <c r="F216" t="s">
+        <v>6</v>
+      </c>
+      <c r="G216">
         <v>0</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" s="2" t="n">
+      <c r="B217" s="2">
         <v>45539</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>13063</v>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" s="2">
         <v>45539</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E217">
         <v>13063</v>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G217" t="n">
+      <c r="F217" t="s">
+        <v>6</v>
+      </c>
+      <c r="G217">
         <v>0</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" s="2" t="n">
+      <c r="B218" s="2">
         <v>45540</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>14668</v>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" s="2">
         <v>45540</v>
       </c>
-      <c r="E218" t="n">
+      <c r="E218">
         <v>14638</v>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G218" t="n">
+      <c r="F218" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218">
         <v>30</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" s="2" t="n">
+      <c r="B219" s="2">
         <v>45541</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>19370</v>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" s="2">
         <v>45541</v>
       </c>
-      <c r="E219" t="n">
+      <c r="E219">
         <v>19336</v>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G219" t="n">
+      <c r="F219" t="s">
+        <v>6</v>
+      </c>
+      <c r="G219">
         <v>34</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" s="2" t="n">
+      <c r="B220" s="2">
         <v>45544</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>13279</v>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" s="2">
         <v>45544</v>
       </c>
-      <c r="E220" t="n">
+      <c r="E220">
         <v>12875</v>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G220" t="n">
+      <c r="F220" t="s">
+        <v>6</v>
+      </c>
+      <c r="G220">
         <v>404</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" s="2" t="n">
+      <c r="B221" s="2">
         <v>45545</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>24037</v>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" s="2">
         <v>45545</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E221">
         <v>25271</v>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G221" t="n">
+      <c r="F221" t="s">
+        <v>6</v>
+      </c>
+      <c r="G221">
         <v>-1234</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" s="2" t="n">
+      <c r="B222" s="2">
         <v>45546</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>22660</v>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" s="2">
         <v>45546</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222">
         <v>22494</v>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G222" t="n">
+      <c r="F222" t="s">
+        <v>6</v>
+      </c>
+      <c r="G222">
         <v>166</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" s="2" t="n">
+      <c r="B223" s="2">
         <v>45547</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>9018</v>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" s="2">
         <v>45547</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223">
         <v>8897</v>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G223" t="n">
+      <c r="F223" t="s">
+        <v>6</v>
+      </c>
+      <c r="G223">
         <v>121</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" s="2" t="n">
+      <c r="B224" s="2">
         <v>45548</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>12559</v>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" s="2">
         <v>45548</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224">
         <v>12442</v>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G224" t="n">
+      <c r="F224" t="s">
+        <v>6</v>
+      </c>
+      <c r="G224">
         <v>117</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" s="2" t="n">
+      <c r="B225" s="2">
         <v>45551</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>21431</v>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" s="2">
         <v>45551</v>
       </c>
-      <c r="E225" t="n">
+      <c r="E225">
         <v>21430</v>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G225" t="n">
+      <c r="F225" t="s">
+        <v>6</v>
+      </c>
+      <c r="G225">
         <v>1</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" s="2" t="n">
+      <c r="B226" s="2">
         <v>45552</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>17749</v>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" s="2">
         <v>45552</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226">
         <v>17754</v>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G226" t="n">
+      <c r="F226" t="s">
+        <v>6</v>
+      </c>
+      <c r="G226">
         <v>-5</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" s="2" t="n">
+      <c r="B227" s="2">
         <v>45553</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>36159</v>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" s="2">
         <v>45553</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227">
         <v>36159</v>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G227" t="n">
+      <c r="F227" t="s">
+        <v>6</v>
+      </c>
+      <c r="G227">
         <v>0</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" s="2" t="n">
+      <c r="B228" s="2">
         <v>45554</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>12898</v>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" s="2">
         <v>45554</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E228">
         <v>12893</v>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G228" t="n">
+      <c r="F228" t="s">
+        <v>6</v>
+      </c>
+      <c r="G228">
         <v>5</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" s="2" t="n">
+      <c r="B229" s="2">
         <v>45555</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>9938</v>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" s="2">
         <v>45555</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E229">
         <v>9938</v>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G229" t="n">
+      <c r="F229" t="s">
+        <v>6</v>
+      </c>
+      <c r="G229">
         <v>0</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" s="2" t="n">
+      <c r="B230" s="2">
         <v>45556</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>4002</v>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" s="2">
         <v>45556</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230">
         <v>4002</v>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G230" t="n">
+      <c r="F230" t="s">
+        <v>6</v>
+      </c>
+      <c r="G230">
         <v>0</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" s="2" t="n">
+      <c r="B231" s="2">
         <v>45558</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>11960</v>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" s="2">
         <v>45558</v>
       </c>
-      <c r="E231" t="n">
+      <c r="E231">
         <v>11467</v>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G231" t="n">
+      <c r="F231" t="s">
+        <v>6</v>
+      </c>
+      <c r="G231">
         <v>493</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" s="2" t="n">
+      <c r="B232" s="2">
         <v>45559</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>5395</v>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" s="2">
         <v>45559</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>5395</v>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G232" t="n">
+      <c r="F232" t="s">
+        <v>6</v>
+      </c>
+      <c r="G232">
         <v>0</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" s="2" t="n">
+      <c r="B233" s="2">
         <v>45560</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>10667</v>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" s="2">
         <v>45560</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233">
         <v>10652</v>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G233" t="n">
+      <c r="F233" t="s">
+        <v>6</v>
+      </c>
+      <c r="G233">
         <v>15</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" s="2" t="n">
+      <c r="B234" s="2">
         <v>45561</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>11101</v>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" s="2">
         <v>45561</v>
       </c>
-      <c r="E234" t="n">
+      <c r="E234">
         <v>11101</v>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G234" t="n">
+      <c r="F234" t="s">
+        <v>6</v>
+      </c>
+      <c r="G234">
         <v>0</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" s="2" t="n">
+      <c r="B235" s="2">
         <v>45562</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>12885</v>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" s="2">
         <v>45562</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235">
         <v>12885</v>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G235" t="n">
+      <c r="F235" t="s">
+        <v>6</v>
+      </c>
+      <c r="G235">
         <v>0</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" s="2" t="n">
+      <c r="B236" s="2">
         <v>45563</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>6020</v>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" s="2">
         <v>45563</v>
       </c>
-      <c r="E236" t="n">
+      <c r="E236">
         <v>5958</v>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G236" t="n">
+      <c r="F236" t="s">
+        <v>6</v>
+      </c>
+      <c r="G236">
         <v>62</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" s="2" t="n">
+      <c r="B237" s="2">
         <v>45565</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>3002</v>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" s="2">
         <v>45565</v>
       </c>
-      <c r="E237" t="n">
+      <c r="E237">
         <v>3002</v>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G237" t="n">
+      <c r="F237" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237">
         <v>0</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" s="2" t="n">
+      <c r="B238" s="2">
         <v>45572</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>13</v>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" s="2">
         <v>45572</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238">
         <v>13</v>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G238" t="n">
+      <c r="F238" t="s">
+        <v>6</v>
+      </c>
+      <c r="G238">
         <v>0</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" s="2" t="n">
+      <c r="B239" s="2">
         <v>45573</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>3223</v>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" s="2">
         <v>45573</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E239">
         <v>3223</v>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G239" t="n">
+      <c r="F239" t="s">
+        <v>6</v>
+      </c>
+      <c r="G239">
         <v>0</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" s="2" t="n">
+      <c r="B240" s="2">
         <v>45574</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>5070</v>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" s="2">
         <v>45574</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E240">
         <v>5106</v>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G240" t="n">
+      <c r="F240" t="s">
+        <v>6</v>
+      </c>
+      <c r="G240">
         <v>-36</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" s="2" t="n">
+      <c r="B241" s="2">
         <v>45575</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>10915</v>
       </c>
-      <c r="D241" s="2" t="n">
+      <c r="D241" s="2">
         <v>45575</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E241">
         <v>10915</v>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G241" t="n">
+      <c r="F241" t="s">
+        <v>6</v>
+      </c>
+      <c r="G241">
         <v>0</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" s="2" t="n">
+      <c r="B242" s="2">
         <v>45576</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>5311</v>
       </c>
-      <c r="D242" s="2" t="n">
+      <c r="D242" s="2">
         <v>45576</v>
       </c>
-      <c r="E242" t="n">
+      <c r="E242">
         <v>5299</v>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G242" t="n">
+      <c r="F242" t="s">
+        <v>6</v>
+      </c>
+      <c r="G242">
         <v>12</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="inlineStr"/>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0</v>
       </c>
-      <c r="D243" s="2" t="n">
+      <c r="D243" s="2">
         <v>45577</v>
       </c>
-      <c r="E243" t="n">
+      <c r="E243">
         <v>192</v>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G243" t="n">
+      <c r="F243" t="s">
+        <v>7</v>
+      </c>
+      <c r="G243">
         <v>-192</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" s="2" t="n">
+      <c r="B244" s="2">
         <v>45579</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>6373</v>
       </c>
-      <c r="D244" s="2" t="n">
+      <c r="D244" s="2">
         <v>45579</v>
       </c>
-      <c r="E244" t="n">
+      <c r="E244">
         <v>6373</v>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G244" t="n">
+      <c r="F244" t="s">
+        <v>6</v>
+      </c>
+      <c r="G244">
         <v>0</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" s="2" t="n">
+      <c r="B245" s="2">
         <v>45580</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>12129</v>
       </c>
-      <c r="D245" s="2" t="n">
+      <c r="D245" s="2">
         <v>45580</v>
       </c>
-      <c r="E245" t="n">
+      <c r="E245">
         <v>12085</v>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G245" t="n">
+      <c r="F245" t="s">
+        <v>6</v>
+      </c>
+      <c r="G245">
         <v>44</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" s="2" t="n">
+      <c r="B246" s="2">
         <v>45581</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>20757</v>
       </c>
-      <c r="D246" s="2" t="n">
+      <c r="D246" s="2">
         <v>45581</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E246">
         <v>20757</v>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G246" t="n">
+      <c r="F246" t="s">
+        <v>6</v>
+      </c>
+      <c r="G246">
         <v>0</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" s="2" t="n">
+      <c r="B247" s="2">
         <v>45582</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>8879</v>
       </c>
-      <c r="D247" s="2" t="n">
+      <c r="D247" s="2">
         <v>45582</v>
       </c>
-      <c r="E247" t="n">
+      <c r="E247">
         <v>8874</v>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G247" t="n">
+      <c r="F247" t="s">
+        <v>6</v>
+      </c>
+      <c r="G247">
         <v>5</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" s="2" t="n">
+      <c r="B248" s="2">
         <v>45583</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>9598</v>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" s="2">
         <v>45583</v>
       </c>
-      <c r="E248" t="n">
+      <c r="E248">
         <v>9585</v>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G248" t="n">
+      <c r="F248" t="s">
+        <v>6</v>
+      </c>
+      <c r="G248">
         <v>13</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0</v>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" s="2">
         <v>45584</v>
       </c>
-      <c r="E249" t="n">
+      <c r="E249">
         <v>146</v>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G249" t="n">
+      <c r="F249" t="s">
+        <v>7</v>
+      </c>
+      <c r="G249">
         <v>-146</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" s="2" t="n">
+      <c r="B250" s="2">
         <v>45586</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>13525</v>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" s="2">
         <v>45586</v>
       </c>
-      <c r="E250" t="n">
+      <c r="E250">
         <v>13525</v>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G250" t="n">
+      <c r="F250" t="s">
+        <v>6</v>
+      </c>
+      <c r="G250">
         <v>0</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" s="2" t="n">
+      <c r="B251" s="2">
         <v>45587</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>13435</v>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" s="2">
         <v>45587</v>
       </c>
-      <c r="E251" t="n">
+      <c r="E251">
         <v>13435</v>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G251" t="n">
+      <c r="F251" t="s">
+        <v>6</v>
+      </c>
+      <c r="G251">
         <v>0</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" s="2" t="n">
+      <c r="B252" s="2">
         <v>45588</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>10512</v>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" s="2">
         <v>45588</v>
       </c>
-      <c r="E252" t="n">
+      <c r="E252">
         <v>10512</v>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G252" t="n">
+      <c r="F252" t="s">
+        <v>6</v>
+      </c>
+      <c r="G252">
         <v>0</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" s="2" t="n">
+      <c r="B253" s="2">
         <v>45589</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>10440</v>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" s="2">
         <v>45589</v>
       </c>
-      <c r="E253" t="n">
+      <c r="E253">
         <v>10450</v>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G253" t="n">
+      <c r="F253" t="s">
+        <v>6</v>
+      </c>
+      <c r="G253">
         <v>-10</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" s="2" t="n">
+      <c r="B254" s="2">
         <v>45590</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>19650</v>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" s="2">
         <v>45590</v>
       </c>
-      <c r="E254" t="n">
+      <c r="E254">
         <v>19650</v>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G254" t="n">
+      <c r="F254" t="s">
+        <v>6</v>
+      </c>
+      <c r="G254">
         <v>0</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="inlineStr"/>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0</v>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" s="2">
         <v>45591</v>
       </c>
-      <c r="E255" t="n">
-        <v>6</v>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>right_only</t>
-        </is>
-      </c>
-      <c r="G255" t="n">
+      <c r="E255">
+        <v>6</v>
+      </c>
+      <c r="F255" t="s">
+        <v>7</v>
+      </c>
+      <c r="G255">
         <v>-6</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" s="2" t="n">
+      <c r="B256" s="2">
         <v>45593</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>24627</v>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" s="2">
         <v>45593</v>
       </c>
-      <c r="E256" t="n">
+      <c r="E256">
         <v>24627</v>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G256" t="n">
+      <c r="F256" t="s">
+        <v>6</v>
+      </c>
+      <c r="G256">
         <v>0</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" s="2" t="n">
+      <c r="B257" s="2">
         <v>45594</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>16513</v>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" s="2">
         <v>45594</v>
       </c>
-      <c r="E257" t="n">
+      <c r="E257">
         <v>16570</v>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G257" t="n">
+      <c r="F257" t="s">
+        <v>6</v>
+      </c>
+      <c r="G257">
         <v>-57</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" s="2" t="n">
+      <c r="B258" s="2">
         <v>45595</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>25413</v>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" s="2">
         <v>45595</v>
       </c>
-      <c r="E258" t="n">
+      <c r="E258">
         <v>25511</v>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G258" t="n">
+      <c r="F258" t="s">
+        <v>6</v>
+      </c>
+      <c r="G258">
         <v>-98</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" s="2" t="n">
+      <c r="B259" s="2">
         <v>45596</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>28882</v>
       </c>
-      <c r="D259" s="2" t="n">
+      <c r="D259" s="2">
         <v>45596</v>
       </c>
-      <c r="E259" t="n">
+      <c r="E259">
         <v>28882</v>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="G259" t="n">
+      <c r="F259" t="s">
+        <v>6</v>
+      </c>
+      <c r="G259">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f0033efe-d82e-4c5f-a712-3a3948bb453e}" enabled="0" method="" siteId="{f0033efe-d82e-4c5f-a712-3a3948bb453e}" removed="1"/>
+</clbl:labelList>
 </file>